--- a/app/static/assets/scaffolding_request_sandbox.xlsx
+++ b/app/static/assets/scaffolding_request_sandbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ysimonx/Developpement/on_site_intervention_api/app/static/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA6AFA-064B-7042-AF9E-5862EACE7DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F68CE1-97ED-F84D-A00B-7D9A7FD8039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="500" windowWidth="33600" windowHeight="20520" xr2:uid="{2B939A96-A5BD-8442-8209-E77C255CE096}"/>
   </bookViews>
@@ -751,46 +751,160 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -799,12 +913,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,136 +922,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1285,7 +1285,7 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:Q73"/>
     </sheetView>
   </sheetViews>
@@ -1293,15 +1293,15 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1314,36 +1314,36 @@
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="152" t="s">
+      <c r="J2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="153"/>
-      <c r="L2" s="154" t="s">
+      <c r="K2" s="99"/>
+      <c r="L2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="7"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -1380,8 +1380,8 @@
       <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1391,9 +1391,9 @@
         <v>5</v>
       </c>
       <c r="K5" s="16"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="19"/>
@@ -1459,21 +1459,21 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="156"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="24"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="144" t="s">
+      <c r="J9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
       <c r="M9" s="25"/>
       <c r="N9" s="26">
         <v>45319</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="143"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="26">
         <v>45327</v>
       </c>
@@ -1515,19 +1515,19 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="144" t="s">
+      <c r="J11" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
       <c r="M11" s="25"/>
       <c r="N11" s="24">
         <v>15</v>
       </c>
-      <c r="O11" s="145" t="s">
+      <c r="O11" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="146"/>
+      <c r="P11" s="111"/>
       <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1575,8 +1575,8 @@
       <c r="B14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -1586,9 +1586,9 @@
         <v>5</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="138"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="114"/>
       <c r="O14" s="23"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="19"/>
@@ -1634,12 +1634,12 @@
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -1649,9 +1649,9 @@
         <v>15</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="138"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="114"/>
       <c r="O17" s="23"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="19"/>
@@ -1680,8 +1680,8 @@
       <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -1691,9 +1691,9 @@
         <v>17</v>
       </c>
       <c r="K19" s="16"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="138"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="114"/>
       <c r="O19" s="23"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="19"/>
@@ -1762,10 +1762,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="134"/>
+      <c r="D23" s="118"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="41" t="s">
@@ -1773,17 +1773,17 @@
       </c>
       <c r="H23" s="41"/>
       <c r="I23" s="42"/>
-      <c r="J23" s="103" t="s">
+      <c r="J23" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="104"/>
-      <c r="L23" s="105"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="104"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="103" t="s">
+      <c r="N23" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="104"/>
-      <c r="P23" s="105"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="104"/>
       <c r="Q23" s="39"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -1815,17 +1815,17 @@
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="103" t="s">
+      <c r="J25" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="104"/>
-      <c r="L25" s="105"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="104"/>
       <c r="M25" s="38"/>
-      <c r="N25" s="139" t="s">
+      <c r="N25" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="140"/>
-      <c r="P25" s="141"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="107"/>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -1891,11 +1891,11 @@
       <c r="J28" s="48"/>
       <c r="K28" s="45"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="123" t="s">
+      <c r="M28" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
       <c r="P28" s="38"/>
       <c r="Q28" s="39"/>
     </row>
@@ -1984,11 +1984,11 @@
         <v>37</v>
       </c>
       <c r="K32" s="45"/>
-      <c r="L32" s="124" t="s">
+      <c r="L32" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="125"/>
-      <c r="N32" s="126"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="124"/>
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
       <c r="Q32" s="39"/>
@@ -2030,11 +2030,11 @@
         <v>37</v>
       </c>
       <c r="K34" s="45"/>
-      <c r="L34" s="124" t="s">
+      <c r="L34" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="M34" s="125"/>
-      <c r="N34" s="126"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="124"/>
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="39"/>
@@ -2105,26 +2105,26 @@
       <c r="B38" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="127" t="s">
+      <c r="C38" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="129"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="127"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="38"/>
-      <c r="J38" s="130" t="s">
+      <c r="J38" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="130"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="132" t="s">
+      <c r="K38" s="128"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="133"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="134"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="118"/>
       <c r="Q38" s="39"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -2154,11 +2154,11 @@
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="119" t="s">
+      <c r="F40" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
       <c r="I40" s="38"/>
       <c r="J40" s="45"/>
       <c r="K40" s="45"/>
@@ -2198,9 +2198,9 @@
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
       <c r="M42" s="53"/>
       <c r="N42" s="54"/>
       <c r="O42" s="54"/>
@@ -2252,27 +2252,27 @@
       <c r="B45" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="121" t="s">
+      <c r="C45" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="121"/>
+      <c r="D45" s="133"/>
       <c r="E45" s="66"/>
       <c r="F45" s="67"/>
-      <c r="G45" s="108" t="s">
+      <c r="G45" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="108"/>
-      <c r="I45" s="122" t="s">
+      <c r="H45" s="119"/>
+      <c r="I45" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
       <c r="L45" s="62"/>
-      <c r="M45" s="108" t="s">
+      <c r="M45" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="N45" s="108"/>
-      <c r="O45" s="109"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="120"/>
       <c r="P45" s="68" t="s">
         <v>53</v>
       </c>
@@ -2293,10 +2293,10 @@
       <c r="L46" s="62"/>
       <c r="M46" s="62"/>
       <c r="N46" s="62"/>
-      <c r="O46" s="113" t="s">
+      <c r="O46" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="P46" s="113"/>
+      <c r="P46" s="136"/>
       <c r="Q46" s="63"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -2315,15 +2315,15 @@
         <v>29</v>
       </c>
       <c r="I47" s="62"/>
-      <c r="J47" s="101" t="s">
+      <c r="J47" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="K47" s="101"/>
+      <c r="K47" s="137"/>
       <c r="L47" s="62"/>
-      <c r="M47" s="98" t="s">
+      <c r="M47" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="N47" s="98"/>
+      <c r="N47" s="138"/>
       <c r="O47" s="62"/>
       <c r="P47" s="71" t="s">
         <v>30</v>
@@ -2331,11 +2331,11 @@
       <c r="Q47" s="63"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="114" t="s">
+      <c r="A48" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
       <c r="D48" s="72">
         <v>1.5</v>
       </c>
@@ -2348,11 +2348,11 @@
         <v>1.5</v>
       </c>
       <c r="I48" s="62"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="117"/>
+      <c r="J48" s="141"/>
+      <c r="K48" s="142"/>
       <c r="L48" s="62"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
+      <c r="M48" s="143"/>
+      <c r="N48" s="143"/>
       <c r="O48" s="62"/>
       <c r="P48" s="72" t="s">
         <v>32</v>
@@ -2400,21 +2400,21 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="60"/>
       <c r="B51" s="62"/>
-      <c r="C51" s="106" t="s">
+      <c r="C51" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="107"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="145"/>
       <c r="F51" s="68" t="s">
         <v>37</v>
       </c>
       <c r="G51" s="62"/>
       <c r="H51" s="62"/>
-      <c r="I51" s="106" t="s">
+      <c r="I51" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="J51" s="106"/>
-      <c r="K51" s="107"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="145"/>
       <c r="L51" s="72" t="s">
         <v>60</v>
       </c>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="60"/>
-      <c r="B54" s="108" t="s">
+      <c r="B54" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="109"/>
+      <c r="C54" s="120"/>
       <c r="D54" s="68" t="s">
         <v>37</v>
       </c>
@@ -2475,22 +2475,22 @@
       <c r="F54" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="110" t="s">
+      <c r="G54" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="110"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-      <c r="K54" s="110"/>
-      <c r="L54" s="110"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="146"/>
+      <c r="J54" s="146"/>
+      <c r="K54" s="146"/>
+      <c r="L54" s="146"/>
       <c r="M54" s="67"/>
       <c r="N54" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="O54" s="111" t="s">
+      <c r="O54" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="P54" s="112"/>
+      <c r="P54" s="148"/>
       <c r="Q54" s="63"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -2500,12 +2500,12 @@
       <c r="D55" s="67"/>
       <c r="E55" s="67"/>
       <c r="F55" s="67"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="110"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="110"/>
-      <c r="K55" s="110"/>
-      <c r="L55" s="110"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="146"/>
+      <c r="K55" s="146"/>
+      <c r="L55" s="146"/>
       <c r="M55" s="62"/>
       <c r="N55" s="62"/>
       <c r="O55" s="62"/>
@@ -2593,10 +2593,10 @@
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="77"/>
       <c r="B60" s="79"/>
-      <c r="C60" s="94" t="s">
+      <c r="C60" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="94"/>
+      <c r="D60" s="135"/>
       <c r="E60" s="81"/>
       <c r="F60" s="79"/>
       <c r="G60" s="79"/>
@@ -2606,11 +2606,11 @@
       <c r="K60" s="79"/>
       <c r="L60" s="79"/>
       <c r="M60" s="79"/>
-      <c r="N60" s="94" t="s">
+      <c r="N60" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="O60" s="94"/>
-      <c r="P60" s="94"/>
+      <c r="O60" s="135"/>
+      <c r="P60" s="135"/>
       <c r="Q60" s="80"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -2618,8 +2618,8 @@
       <c r="B61" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="92"/>
-      <c r="D61" s="93"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="151"/>
       <c r="E61" s="81"/>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
@@ -2627,20 +2627,20 @@
       <c r="I61" s="79"/>
       <c r="J61" s="79"/>
       <c r="K61" s="79"/>
-      <c r="L61" s="94" t="s">
+      <c r="L61" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="M61" s="95"/>
-      <c r="N61" s="103"/>
-      <c r="O61" s="104"/>
-      <c r="P61" s="105"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="103"/>
+      <c r="P61" s="104"/>
       <c r="Q61" s="80"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="77"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="93"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="151"/>
       <c r="E62" s="81"/>
       <c r="F62" s="79"/>
       <c r="G62" s="79"/>
@@ -2648,18 +2648,18 @@
       <c r="I62" s="79"/>
       <c r="J62" s="79"/>
       <c r="K62" s="79"/>
-      <c r="L62" s="92"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="96"/>
-      <c r="O62" s="96"/>
-      <c r="P62" s="93"/>
+      <c r="L62" s="149"/>
+      <c r="M62" s="150"/>
+      <c r="N62" s="150"/>
+      <c r="O62" s="150"/>
+      <c r="P62" s="151"/>
       <c r="Q62" s="80"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="77"/>
-      <c r="B63" s="97"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="99"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="153"/>
       <c r="E63" s="81"/>
       <c r="F63" s="79"/>
       <c r="G63" s="79"/>
@@ -2667,18 +2667,18 @@
       <c r="I63" s="79"/>
       <c r="J63" s="79"/>
       <c r="K63" s="79"/>
-      <c r="L63" s="97"/>
-      <c r="M63" s="98"/>
-      <c r="N63" s="98"/>
-      <c r="O63" s="98"/>
-      <c r="P63" s="99"/>
+      <c r="L63" s="152"/>
+      <c r="M63" s="138"/>
+      <c r="N63" s="138"/>
+      <c r="O63" s="138"/>
+      <c r="P63" s="153"/>
       <c r="Q63" s="80"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="77"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="102"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="155"/>
       <c r="E64" s="81"/>
       <c r="F64" s="79"/>
       <c r="G64" s="79"/>
@@ -2686,11 +2686,11 @@
       <c r="I64" s="79"/>
       <c r="J64" s="79"/>
       <c r="K64" s="79"/>
-      <c r="L64" s="100"/>
-      <c r="M64" s="101"/>
-      <c r="N64" s="101"/>
-      <c r="O64" s="101"/>
-      <c r="P64" s="102"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="137"/>
+      <c r="N64" s="137"/>
+      <c r="O64" s="137"/>
+      <c r="P64" s="155"/>
       <c r="Q64" s="80"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -2734,10 +2734,10 @@
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="77"/>
       <c r="B67" s="79"/>
-      <c r="C67" s="94" t="s">
+      <c r="C67" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="94"/>
+      <c r="D67" s="135"/>
       <c r="E67" s="81"/>
       <c r="F67" s="79"/>
       <c r="G67" s="79"/>
@@ -2747,11 +2747,11 @@
       <c r="K67" s="79"/>
       <c r="L67" s="79"/>
       <c r="M67" s="79"/>
-      <c r="N67" s="94" t="s">
+      <c r="N67" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
+      <c r="O67" s="135"/>
+      <c r="P67" s="135"/>
       <c r="Q67" s="80"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -2759,8 +2759,8 @@
       <c r="B68" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="151"/>
       <c r="E68" s="81"/>
       <c r="F68" s="79"/>
       <c r="G68" s="79"/>
@@ -2768,10 +2768,10 @@
       <c r="I68" s="79"/>
       <c r="J68" s="79"/>
       <c r="K68" s="79"/>
-      <c r="L68" s="94" t="s">
+      <c r="L68" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="M68" s="95"/>
+      <c r="M68" s="156"/>
       <c r="N68" s="83"/>
       <c r="O68" s="84"/>
       <c r="P68" s="85"/>
@@ -2779,9 +2779,9 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="77"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="93"/>
+      <c r="B69" s="149"/>
+      <c r="C69" s="150"/>
+      <c r="D69" s="151"/>
       <c r="E69" s="81"/>
       <c r="F69" s="79"/>
       <c r="G69" s="79"/>
@@ -2798,9 +2798,9 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="77"/>
-      <c r="B70" s="97"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="99"/>
+      <c r="B70" s="152"/>
+      <c r="C70" s="138"/>
+      <c r="D70" s="153"/>
       <c r="E70" s="81"/>
       <c r="F70" s="79"/>
       <c r="G70" s="79"/>
@@ -2817,9 +2817,9 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="77"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="101"/>
-      <c r="D71" s="102"/>
+      <c r="B71" s="154"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="155"/>
       <c r="E71" s="81"/>
       <c r="F71" s="79"/>
       <c r="G71" s="79"/>
@@ -2874,13 +2874,41 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B1:H3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="B69:D71"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="B62:D64"/>
+    <mergeCell ref="L62:P64"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="G54:L55"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:K45"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="B11:C11"/>
@@ -2896,41 +2924,13 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="N23:P23"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="G54:L55"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="B62:D64"/>
-    <mergeCell ref="L62:P64"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="B69:D71"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B1:H3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/app/static/assets/scaffolding_request_sandbox.xlsx
+++ b/app/static/assets/scaffolding_request_sandbox.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ysimonx/Developpement/on_site_intervention_api/app/static/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F68CE1-97ED-F84D-A00B-7D9A7FD8039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8D204B-6DF4-4F45-8B81-EFC673A6B3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="500" windowWidth="33600" windowHeight="20520" xr2:uid="{2B939A96-A5BD-8442-8209-E77C255CE096}"/>
+    <workbookView xWindow="4200" yWindow="500" windowWidth="29400" windowHeight="19080" xr2:uid="{2B939A96-A5BD-8442-8209-E77C255CE096}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="num_registre">Feuil1!$L$2</definedName>
+    <definedName name="registre">Feuil1!$L$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$Q$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -751,15 +751,183 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,174 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,22 +1286,22 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q73"/>
+      <selection activeCell="L5" sqref="L5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1314,36 +1314,36 @@
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="100" t="s">
+      <c r="K2" s="155"/>
+      <c r="L2" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
       <c r="I3" s="7"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -1380,8 +1380,8 @@
       <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1391,9 +1391,9 @@
         <v>5</v>
       </c>
       <c r="K5" s="16"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="19"/>
@@ -1459,21 +1459,21 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="150"/>
       <c r="D9" s="24"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
       <c r="M9" s="25"/>
       <c r="N9" s="26">
         <v>45319</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="109"/>
+      <c r="C11" s="139"/>
       <c r="D11" s="26">
         <v>45327</v>
       </c>
@@ -1515,19 +1515,19 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="94" t="s">
+      <c r="J11" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
       <c r="M11" s="25"/>
       <c r="N11" s="24">
         <v>15</v>
       </c>
-      <c r="O11" s="110" t="s">
+      <c r="O11" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="111"/>
+      <c r="P11" s="142"/>
       <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1575,8 +1575,8 @@
       <c r="B14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -1586,9 +1586,9 @@
         <v>5</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="114"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="146"/>
       <c r="O14" s="23"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="19"/>
@@ -1634,12 +1634,12 @@
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -1649,9 +1649,9 @@
         <v>15</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="114"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="146"/>
       <c r="O17" s="23"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="19"/>
@@ -1680,8 +1680,8 @@
       <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -1691,9 +1691,9 @@
         <v>17</v>
       </c>
       <c r="K19" s="16"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="114"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="146"/>
       <c r="O19" s="23"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="19"/>
@@ -1762,10 +1762,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="118"/>
+      <c r="D23" s="130"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="41" t="s">
@@ -1773,17 +1773,17 @@
       </c>
       <c r="H23" s="41"/>
       <c r="I23" s="42"/>
-      <c r="J23" s="102" t="s">
+      <c r="J23" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="102" t="s">
+      <c r="N23" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="103"/>
-      <c r="P23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="105"/>
       <c r="Q23" s="39"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -1815,17 +1815,17 @@
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="102" t="s">
+      <c r="J25" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="103"/>
-      <c r="L25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="105"/>
       <c r="M25" s="38"/>
-      <c r="N25" s="105" t="s">
+      <c r="N25" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="106"/>
-      <c r="P25" s="107"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -1891,11 +1891,11 @@
       <c r="J28" s="48"/>
       <c r="K28" s="45"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="121" t="s">
+      <c r="M28" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
       <c r="P28" s="38"/>
       <c r="Q28" s="39"/>
     </row>
@@ -1984,11 +1984,11 @@
         <v>37</v>
       </c>
       <c r="K32" s="45"/>
-      <c r="L32" s="122" t="s">
+      <c r="L32" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="123"/>
-      <c r="N32" s="124"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="122"/>
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
       <c r="Q32" s="39"/>
@@ -2030,11 +2030,11 @@
         <v>37</v>
       </c>
       <c r="K34" s="45"/>
-      <c r="L34" s="122" t="s">
+      <c r="L34" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="M34" s="123"/>
-      <c r="N34" s="124"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="122"/>
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="39"/>
@@ -2105,26 +2105,26 @@
       <c r="B38" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="127"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="125"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="38"/>
-      <c r="J38" s="128" t="s">
+      <c r="J38" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="128"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="117" t="s">
+      <c r="K38" s="126"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="118"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="130"/>
       <c r="Q38" s="39"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -2258,21 +2258,21 @@
       <c r="D45" s="133"/>
       <c r="E45" s="66"/>
       <c r="F45" s="67"/>
-      <c r="G45" s="119" t="s">
+      <c r="G45" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="119"/>
+      <c r="H45" s="114"/>
       <c r="I45" s="134" t="s">
         <v>51</v>
       </c>
       <c r="J45" s="134"/>
       <c r="K45" s="134"/>
       <c r="L45" s="62"/>
-      <c r="M45" s="119" t="s">
+      <c r="M45" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="N45" s="119"/>
-      <c r="O45" s="120"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="115"/>
       <c r="P45" s="68" t="s">
         <v>53</v>
       </c>
@@ -2293,10 +2293,10 @@
       <c r="L46" s="62"/>
       <c r="M46" s="62"/>
       <c r="N46" s="62"/>
-      <c r="O46" s="136" t="s">
+      <c r="O46" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="P46" s="136"/>
+      <c r="P46" s="106"/>
       <c r="Q46" s="63"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -2315,15 +2315,15 @@
         <v>29</v>
       </c>
       <c r="I47" s="62"/>
-      <c r="J47" s="137" t="s">
+      <c r="J47" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="K47" s="137"/>
+      <c r="K47" s="101"/>
       <c r="L47" s="62"/>
-      <c r="M47" s="138" t="s">
+      <c r="M47" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="N47" s="138"/>
+      <c r="N47" s="98"/>
       <c r="O47" s="62"/>
       <c r="P47" s="71" t="s">
         <v>30</v>
@@ -2331,11 +2331,11 @@
       <c r="Q47" s="63"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="140"/>
-      <c r="C48" s="140"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
       <c r="D48" s="72">
         <v>1.5</v>
       </c>
@@ -2348,11 +2348,11 @@
         <v>1.5</v>
       </c>
       <c r="I48" s="62"/>
-      <c r="J48" s="141"/>
-      <c r="K48" s="142"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="110"/>
       <c r="L48" s="62"/>
-      <c r="M48" s="143"/>
-      <c r="N48" s="143"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="111"/>
       <c r="O48" s="62"/>
       <c r="P48" s="72" t="s">
         <v>32</v>
@@ -2400,21 +2400,21 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="60"/>
       <c r="B51" s="62"/>
-      <c r="C51" s="144" t="s">
+      <c r="C51" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="144"/>
-      <c r="E51" s="145"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="113"/>
       <c r="F51" s="68" t="s">
         <v>37</v>
       </c>
       <c r="G51" s="62"/>
       <c r="H51" s="62"/>
-      <c r="I51" s="144" t="s">
+      <c r="I51" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="J51" s="144"/>
-      <c r="K51" s="145"/>
+      <c r="J51" s="112"/>
+      <c r="K51" s="113"/>
       <c r="L51" s="72" t="s">
         <v>60</v>
       </c>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="60"/>
-      <c r="B54" s="119" t="s">
+      <c r="B54" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="120"/>
+      <c r="C54" s="115"/>
       <c r="D54" s="68" t="s">
         <v>37</v>
       </c>
@@ -2475,22 +2475,22 @@
       <c r="F54" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="146" t="s">
+      <c r="G54" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="146"/>
-      <c r="K54" s="146"/>
-      <c r="L54" s="146"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
       <c r="M54" s="67"/>
       <c r="N54" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="O54" s="147" t="s">
+      <c r="O54" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="P54" s="148"/>
+      <c r="P54" s="118"/>
       <c r="Q54" s="63"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -2500,12 +2500,12 @@
       <c r="D55" s="67"/>
       <c r="E55" s="67"/>
       <c r="F55" s="67"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
-      <c r="J55" s="146"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="146"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
       <c r="M55" s="62"/>
       <c r="N55" s="62"/>
       <c r="O55" s="62"/>
@@ -2593,10 +2593,10 @@
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="77"/>
       <c r="B60" s="79"/>
-      <c r="C60" s="135" t="s">
+      <c r="C60" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="135"/>
+      <c r="D60" s="94"/>
       <c r="E60" s="81"/>
       <c r="F60" s="79"/>
       <c r="G60" s="79"/>
@@ -2606,11 +2606,11 @@
       <c r="K60" s="79"/>
       <c r="L60" s="79"/>
       <c r="M60" s="79"/>
-      <c r="N60" s="135" t="s">
+      <c r="N60" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="O60" s="135"/>
-      <c r="P60" s="135"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
       <c r="Q60" s="80"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -2618,8 +2618,8 @@
       <c r="B61" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="149"/>
-      <c r="D61" s="151"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="93"/>
       <c r="E61" s="81"/>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
@@ -2627,20 +2627,20 @@
       <c r="I61" s="79"/>
       <c r="J61" s="79"/>
       <c r="K61" s="79"/>
-      <c r="L61" s="135" t="s">
+      <c r="L61" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="M61" s="156"/>
-      <c r="N61" s="102"/>
-      <c r="O61" s="103"/>
-      <c r="P61" s="104"/>
+      <c r="M61" s="95"/>
+      <c r="N61" s="103"/>
+      <c r="O61" s="104"/>
+      <c r="P61" s="105"/>
       <c r="Q61" s="80"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="77"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="151"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="93"/>
       <c r="E62" s="81"/>
       <c r="F62" s="79"/>
       <c r="G62" s="79"/>
@@ -2648,18 +2648,18 @@
       <c r="I62" s="79"/>
       <c r="J62" s="79"/>
       <c r="K62" s="79"/>
-      <c r="L62" s="149"/>
-      <c r="M62" s="150"/>
-      <c r="N62" s="150"/>
-      <c r="O62" s="150"/>
-      <c r="P62" s="151"/>
+      <c r="L62" s="92"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="93"/>
       <c r="Q62" s="80"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="77"/>
-      <c r="B63" s="152"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="153"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="99"/>
       <c r="E63" s="81"/>
       <c r="F63" s="79"/>
       <c r="G63" s="79"/>
@@ -2667,18 +2667,18 @@
       <c r="I63" s="79"/>
       <c r="J63" s="79"/>
       <c r="K63" s="79"/>
-      <c r="L63" s="152"/>
-      <c r="M63" s="138"/>
-      <c r="N63" s="138"/>
-      <c r="O63" s="138"/>
-      <c r="P63" s="153"/>
+      <c r="L63" s="97"/>
+      <c r="M63" s="98"/>
+      <c r="N63" s="98"/>
+      <c r="O63" s="98"/>
+      <c r="P63" s="99"/>
       <c r="Q63" s="80"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="77"/>
-      <c r="B64" s="154"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="155"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="102"/>
       <c r="E64" s="81"/>
       <c r="F64" s="79"/>
       <c r="G64" s="79"/>
@@ -2686,11 +2686,11 @@
       <c r="I64" s="79"/>
       <c r="J64" s="79"/>
       <c r="K64" s="79"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="137"/>
-      <c r="N64" s="137"/>
-      <c r="O64" s="137"/>
-      <c r="P64" s="155"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="101"/>
+      <c r="N64" s="101"/>
+      <c r="O64" s="101"/>
+      <c r="P64" s="102"/>
       <c r="Q64" s="80"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -2734,10 +2734,10 @@
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="77"/>
       <c r="B67" s="79"/>
-      <c r="C67" s="135" t="s">
+      <c r="C67" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="135"/>
+      <c r="D67" s="94"/>
       <c r="E67" s="81"/>
       <c r="F67" s="79"/>
       <c r="G67" s="79"/>
@@ -2747,11 +2747,11 @@
       <c r="K67" s="79"/>
       <c r="L67" s="79"/>
       <c r="M67" s="79"/>
-      <c r="N67" s="135" t="s">
+      <c r="N67" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="O67" s="135"/>
-      <c r="P67" s="135"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
       <c r="Q67" s="80"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -2759,8 +2759,8 @@
       <c r="B68" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="149"/>
-      <c r="D68" s="151"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="93"/>
       <c r="E68" s="81"/>
       <c r="F68" s="79"/>
       <c r="G68" s="79"/>
@@ -2768,10 +2768,10 @@
       <c r="I68" s="79"/>
       <c r="J68" s="79"/>
       <c r="K68" s="79"/>
-      <c r="L68" s="135" t="s">
+      <c r="L68" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="M68" s="156"/>
+      <c r="M68" s="95"/>
       <c r="N68" s="83"/>
       <c r="O68" s="84"/>
       <c r="P68" s="85"/>
@@ -2779,9 +2779,9 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="77"/>
-      <c r="B69" s="149"/>
-      <c r="C69" s="150"/>
-      <c r="D69" s="151"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="93"/>
       <c r="E69" s="81"/>
       <c r="F69" s="79"/>
       <c r="G69" s="79"/>
@@ -2798,9 +2798,9 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="77"/>
-      <c r="B70" s="152"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="153"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="99"/>
       <c r="E70" s="81"/>
       <c r="F70" s="79"/>
       <c r="G70" s="79"/>
@@ -2817,9 +2817,9 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="77"/>
-      <c r="B71" s="154"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="155"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="102"/>
       <c r="E71" s="81"/>
       <c r="F71" s="79"/>
       <c r="G71" s="79"/>
@@ -2874,41 +2874,13 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="B69:D71"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="B62:D64"/>
-    <mergeCell ref="L62:P64"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="G54:L55"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B1:H3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="B11:C11"/>
@@ -2924,13 +2896,41 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="N23:P23"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B1:H3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="G54:L55"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="B62:D64"/>
+    <mergeCell ref="L62:P64"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="B69:D71"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="L61:M61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/app/static/assets/scaffolding_request_sandbox.xlsx
+++ b/app/static/assets/scaffolding_request_sandbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ysimonx/Developpement/on_site_intervention_api/app/static/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8D204B-6DF4-4F45-8B81-EFC673A6B3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE55F055-C64B-2543-806B-A90400609C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="500" windowWidth="29400" windowHeight="19080" xr2:uid="{2B939A96-A5BD-8442-8209-E77C255CE096}"/>
   </bookViews>
@@ -16,6 +16,12 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="date_demande">Feuil1!$N$9</definedName>
+    <definedName name="date_mise_a_disposition">Feuil1!$D$11</definedName>
+    <definedName name="donneur_ordre.company">Feuil1!$C$5</definedName>
+    <definedName name="donneur_ordre.lastname">Feuil1!$L$5</definedName>
+    <definedName name="duree_mise_a_disposition">Feuil1!$N$11</definedName>
+    <definedName name="numero_permis_ot">Feuil1!$D$9</definedName>
     <definedName name="registre">Feuil1!$L$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$Q$73</definedName>
   </definedNames>
@@ -627,7 +633,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -946,6 +951,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,15 +1299,15 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1314,36 +1320,36 @@
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="154" t="s">
+      <c r="J2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156" t="s">
+      <c r="K2" s="154"/>
+      <c r="L2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
       <c r="I3" s="7"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -1380,8 +1386,8 @@
       <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1391,9 +1397,9 @@
         <v>5</v>
       </c>
       <c r="K5" s="16"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="19"/>
@@ -1459,23 +1465,23 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="150"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26">
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25">
         <v>45319</v>
       </c>
       <c r="O9" s="17"/>
@@ -1503,11 +1509,11 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="26">
+      <c r="C11" s="138"/>
+      <c r="D11" s="25">
         <v>45327</v>
       </c>
       <c r="E11" s="17"/>
@@ -1515,19 +1521,19 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="140" t="s">
+      <c r="J11" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24">
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="156">
         <v>15</v>
       </c>
-      <c r="O11" s="141" t="s">
+      <c r="O11" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="142"/>
+      <c r="P11" s="141"/>
       <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1572,11 +1578,11 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -1586,9 +1592,9 @@
         <v>5</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="146"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="145"/>
       <c r="O14" s="23"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="19"/>
@@ -1614,7 +1620,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="17"/>
@@ -1634,12 +1640,12 @@
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -1649,15 +1655,15 @@
         <v>15</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="146"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="145"/>
       <c r="O17" s="23"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -1676,12 +1682,12 @@
       <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -1691,1186 +1697,1186 @@
         <v>17</v>
       </c>
       <c r="K19" s="16"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="146"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="145"/>
       <c r="O19" s="23"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="36"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="39"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="128" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="41" t="s">
+      <c r="D23" s="129"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="103" t="s">
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="104"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="103" t="s">
+      <c r="K23" s="103"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="104"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="39"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="39"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="103" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="104"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="135" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="39"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="38"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="44" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="39"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="46" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46" t="s">
+      <c r="G27" s="45"/>
+      <c r="H27" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46" t="s">
+      <c r="I27" s="45"/>
+      <c r="J27" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="46"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="46" t="s">
+      <c r="K27" s="45"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="39"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="119" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="39"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="39"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="48">
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="47">
         <v>3.5</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="48">
+      <c r="G30" s="37"/>
+      <c r="H30" s="47">
         <v>1.5</v>
       </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="48">
+      <c r="I30" s="37"/>
+      <c r="J30" s="47">
         <v>1</v>
       </c>
-      <c r="K30" s="45"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="39"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="39"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="47" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="48" t="s">
+      <c r="G32" s="46"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="120" t="s">
+      <c r="K32" s="44"/>
+      <c r="L32" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="121"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="39"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="39"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="47" t="s">
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="48" t="s">
+      <c r="G34" s="46"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="120" t="s">
+      <c r="K34" s="44"/>
+      <c r="L34" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="M34" s="121"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="39"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="39"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="50">
+      <c r="C36" s="42"/>
+      <c r="D36" s="49">
         <v>2</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="39"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="39"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="51" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="126" t="s">
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="126"/>
-      <c r="L38" s="127"/>
-      <c r="M38" s="128" t="s">
+      <c r="K38" s="125"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="39"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="38"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="39"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="47" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="131" t="s">
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="39"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="39"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="38"/>
     </row>
     <row r="42" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="55"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="54"/>
     </row>
     <row r="43" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="59"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="58"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="63"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="62"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65" t="s">
+      <c r="A45" s="63"/>
+      <c r="B45" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="133" t="s">
+      <c r="C45" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="133"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="114" t="s">
+      <c r="D45" s="132"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="114"/>
-      <c r="I45" s="134" t="s">
+      <c r="H45" s="113"/>
+      <c r="I45" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="114" t="s">
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="N45" s="114"/>
-      <c r="O45" s="115"/>
-      <c r="P45" s="68" t="s">
+      <c r="N45" s="113"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="Q45" s="69"/>
+      <c r="Q45" s="68"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="60"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="106" t="s">
+      <c r="A46" s="59"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="63"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="62"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="71" t="s">
+      <c r="A47" s="59"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71" t="s">
+      <c r="E47" s="70"/>
+      <c r="F47" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="62"/>
-      <c r="H47" s="71" t="s">
+      <c r="G47" s="61"/>
+      <c r="H47" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="62"/>
-      <c r="J47" s="101" t="s">
+      <c r="I47" s="61"/>
+      <c r="J47" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="K47" s="101"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="98" t="s">
+      <c r="K47" s="100"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="N47" s="98"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="71" t="s">
+      <c r="N47" s="97"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="Q47" s="63"/>
+      <c r="Q47" s="62"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="72">
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="71">
         <v>1.5</v>
       </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72">
+      <c r="E48" s="70"/>
+      <c r="F48" s="71">
         <v>1.5</v>
       </c>
-      <c r="G48" s="62"/>
-      <c r="H48" s="72">
+      <c r="G48" s="61"/>
+      <c r="H48" s="71">
         <v>1.5</v>
       </c>
-      <c r="I48" s="62"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="111"/>
-      <c r="N48" s="111"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="72" t="s">
+      <c r="I48" s="61"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="Q48" s="63"/>
+      <c r="Q48" s="62"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="63"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="62"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="60"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="63"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="62"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="60"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="112" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="112"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="68" t="s">
+      <c r="D51" s="111"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="112" t="s">
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="J51" s="112"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="72" t="s">
+      <c r="J51" s="111"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="63"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="62"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="63"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="62"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="60"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="63"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="62"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="60"/>
-      <c r="B54" s="114" t="s">
+      <c r="A54" s="59"/>
+      <c r="B54" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="115"/>
-      <c r="D54" s="68" t="s">
+      <c r="C54" s="114"/>
+      <c r="D54" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="65" t="s">
+      <c r="E54" s="65"/>
+      <c r="F54" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="116" t="s">
+      <c r="G54" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="116"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67" t="s">
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="115"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="O54" s="117" t="s">
+      <c r="O54" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="P54" s="118"/>
-      <c r="Q54" s="63"/>
+      <c r="P54" s="117"/>
+      <c r="Q54" s="62"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="116"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="63"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="115"/>
+      <c r="L55" s="115"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="62"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="63"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="62"/>
     </row>
     <row r="57" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="63"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="62"/>
     </row>
     <row r="58" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="73"/>
-      <c r="B58" s="74" t="s">
+      <c r="A58" s="72"/>
+      <c r="B58" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="76"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="75"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="77"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="80"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="79"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="77"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="94" t="s">
+      <c r="A60" s="76"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="94"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="94" t="s">
+      <c r="D60" s="93"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="O60" s="94"/>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="80"/>
+      <c r="O60" s="93"/>
+      <c r="P60" s="93"/>
+      <c r="Q60" s="79"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="77"/>
-      <c r="B61" s="82" t="s">
+      <c r="A61" s="76"/>
+      <c r="B61" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="92"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="94" t="s">
+      <c r="C61" s="91"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="M61" s="95"/>
-      <c r="N61" s="103"/>
-      <c r="O61" s="104"/>
-      <c r="P61" s="105"/>
-      <c r="Q61" s="80"/>
+      <c r="M61" s="94"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="103"/>
+      <c r="P61" s="104"/>
+      <c r="Q61" s="79"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="77"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="92"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="96"/>
-      <c r="O62" s="96"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="80"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="95"/>
+      <c r="N62" s="95"/>
+      <c r="O62" s="95"/>
+      <c r="P62" s="92"/>
+      <c r="Q62" s="79"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="77"/>
-      <c r="B63" s="97"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="97"/>
-      <c r="M63" s="98"/>
-      <c r="N63" s="98"/>
-      <c r="O63" s="98"/>
-      <c r="P63" s="99"/>
-      <c r="Q63" s="80"/>
+      <c r="A63" s="76"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="97"/>
+      <c r="N63" s="97"/>
+      <c r="O63" s="97"/>
+      <c r="P63" s="98"/>
+      <c r="Q63" s="79"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="77"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="100"/>
-      <c r="M64" s="101"/>
-      <c r="N64" s="101"/>
-      <c r="O64" s="101"/>
-      <c r="P64" s="102"/>
-      <c r="Q64" s="80"/>
+      <c r="A64" s="76"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="101"/>
+      <c r="Q64" s="79"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="77"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="81"/>
-      <c r="M65" s="81"/>
-      <c r="N65" s="81"/>
-      <c r="O65" s="81"/>
-      <c r="P65" s="79"/>
-      <c r="Q65" s="80"/>
+      <c r="A65" s="76"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="79"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="77"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="81"/>
-      <c r="M66" s="81"/>
-      <c r="N66" s="81"/>
-      <c r="O66" s="81"/>
-      <c r="P66" s="79"/>
-      <c r="Q66" s="80"/>
+      <c r="A66" s="76"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="79"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="77"/>
-      <c r="B67" s="79"/>
-      <c r="C67" s="94" t="s">
+      <c r="A67" s="76"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="94"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="94" t="s">
+      <c r="D67" s="93"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="80"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="79"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="77"/>
-      <c r="B68" s="82" t="s">
+      <c r="A68" s="76"/>
+      <c r="B68" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="94" t="s">
+      <c r="C68" s="91"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="M68" s="95"/>
-      <c r="N68" s="83"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="85"/>
-      <c r="Q68" s="80"/>
+      <c r="M68" s="94"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="79"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="77"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="85"/>
-      <c r="Q69" s="80"/>
+      <c r="A69" s="76"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="79"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="77"/>
-      <c r="B70" s="97"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="62"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="80"/>
+      <c r="A70" s="76"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="79"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="77"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="101"/>
-      <c r="D71" s="102"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="86"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
-      <c r="O71" s="87"/>
-      <c r="P71" s="88"/>
-      <c r="Q71" s="80"/>
+      <c r="A71" s="76"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="78"/>
+      <c r="H71" s="78"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="86"/>
+      <c r="N71" s="86"/>
+      <c r="O71" s="86"/>
+      <c r="P71" s="87"/>
+      <c r="Q71" s="79"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="77"/>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="80"/>
+      <c r="A72" s="76"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
+      <c r="M72" s="78"/>
+      <c r="N72" s="78"/>
+      <c r="O72" s="78"/>
+      <c r="P72" s="78"/>
+      <c r="Q72" s="79"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="89"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="90"/>
-      <c r="K73" s="90"/>
-      <c r="L73" s="90"/>
-      <c r="M73" s="90"/>
-      <c r="N73" s="90"/>
-      <c r="O73" s="90"/>
-      <c r="P73" s="90"/>
-      <c r="Q73" s="91"/>
+      <c r="A73" s="88"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="89"/>
+      <c r="J73" s="89"/>
+      <c r="K73" s="89"/>
+      <c r="L73" s="89"/>
+      <c r="M73" s="89"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="89"/>
+      <c r="P73" s="89"/>
+      <c r="Q73" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="57">
